--- a/state-of-rental-housing-2021/data/source/IHS_DataMade_SOR_2021_SD.xlsx
+++ b/state-of-rental-housing-2021/data/source/IHS_DataMade_SOR_2021_SD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://depauledu-my.sharepoint.com/personal/sduda1_depaul_edu/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\com\rec\IHS_User\jwang177\Projects\State of Rental\SOR 2021\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27570" windowHeight="11145"/>
   </bookViews>
   <sheets>
     <sheet name="AllData" sheetId="1" r:id="rId1"/>
@@ -195,9 +195,6 @@
     <t>Change in Share of Lower-Income Renters in Unaffordable Units</t>
   </si>
   <si>
-    <t>Chicago-Loop</t>
-  </si>
-  <si>
     <t>Submarket (PUMA)</t>
   </si>
   <si>
@@ -322,6 +319,9 @@
   </si>
   <si>
     <t>Current Conditions (2017-2019) and Percentage Point Change</t>
+  </si>
+  <si>
+    <t>Loop</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1019,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1339,23 +1339,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1376,23 +1375,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1411,6 +1401,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1439,10 +1447,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1620,7 +1628,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2011,7 +2018,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2240,7 +2246,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2388,7 +2393,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2616,7 +2620,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2764,7 +2767,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2993,7 +2995,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3141,7 +3142,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3370,7 +3370,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3518,7 +3517,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3746,7 +3744,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3894,7 +3891,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4123,7 +4119,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4273,7 +4268,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4502,7 +4496,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4649,7 +4642,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4780,7 +4772,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4911,7 +4902,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5042,7 +5032,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5353,7 +5342,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5500,7 +5488,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5818,7 +5805,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5973,7 +5959,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6128,7 +6113,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6349,7 +6333,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6497,7 +6480,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6709,7 +6691,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6984,7 +6965,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9203,7 +9183,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9367,7 +9346,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9530,7 +9508,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9744,7 +9721,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9893,7 +9869,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10057,7 +10032,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10220,7 +10194,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10435,7 +10408,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10560,9 +10532,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-945C-4EC2-83AB-AF404C89830A}"/>
                 </c:ext>
@@ -10607,7 +10577,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10742,9 +10711,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-945C-4EC2-83AB-AF404C89830A}"/>
                 </c:ext>
@@ -10789,7 +10756,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11010,7 +10976,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11835,6 +11800,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11877,13 +11843,13 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-5.2210064592201288E-2</c:v>
+                  <c:v>-5.2273714548378591E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.2662495052286142E-2</c:v>
+                  <c:v>-4.2490297987852033E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.451920994885709E-2</c:v>
+                  <c:v>2.4392161096373044E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12140,7 +12106,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12271,7 +12236,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12402,7 +12366,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12533,7 +12496,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12664,7 +12626,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12821,7 +12782,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12969,7 +12929,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13197,7 +13156,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13345,7 +13303,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13573,7 +13530,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13721,7 +13677,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13949,7 +13904,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14097,7 +14051,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14325,7 +14278,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14473,7 +14425,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14701,7 +14652,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14848,7 +14798,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14979,7 +14928,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15110,7 +15058,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15241,7 +15188,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15372,7 +15318,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15503,7 +15448,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15636,7 +15580,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15820,7 +15763,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -31965,10 +31907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:K244"/>
+  <dimension ref="B7:L244"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89:C89"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="B219" sqref="B219:E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31979,23 +31921,23 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="139"/>
+      <c r="C9" s="147"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -32145,20 +32087,20 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="177" t="s">
+      <c r="B28" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="178"/>
+      <c r="C28" s="180"/>
       <c r="D28" s="1"/>
       <c r="E28" s="15"/>
     </row>
     <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="137" t="s">
+      <c r="B31" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="138"/>
-      <c r="D31" s="139"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="147"/>
     </row>
     <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="22"/>
@@ -32357,22 +32299,22 @@
       </c>
     </row>
     <row r="50" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="180" t="s">
+      <c r="B50" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="181"/>
-      <c r="D50" s="182"/>
+      <c r="C50" s="183"/>
+      <c r="D50" s="184"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="174" t="s">
+      <c r="B53" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="175"/>
-      <c r="D53" s="175"/>
-      <c r="E53" s="175"/>
-      <c r="F53" s="175"/>
-      <c r="G53" s="176"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="177"/>
+      <c r="E53" s="177"/>
+      <c r="F53" s="177"/>
+      <c r="G53" s="178"/>
     </row>
     <row r="54" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="32"/>
@@ -32473,25 +32415,25 @@
       </c>
     </row>
     <row r="59" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="171" t="s">
+      <c r="B59" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="172"/>
-      <c r="D59" s="172"/>
-      <c r="E59" s="172"/>
-      <c r="F59" s="172"/>
-      <c r="G59" s="173"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="174"/>
+      <c r="E59" s="174"/>
+      <c r="F59" s="174"/>
+      <c r="G59" s="175"/>
     </row>
     <row r="61" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="174" t="s">
+      <c r="B62" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="175"/>
-      <c r="D62" s="175"/>
-      <c r="E62" s="175"/>
-      <c r="F62" s="175"/>
-      <c r="G62" s="176"/>
+      <c r="C62" s="177"/>
+      <c r="D62" s="177"/>
+      <c r="E62" s="177"/>
+      <c r="F62" s="177"/>
+      <c r="G62" s="178"/>
     </row>
     <row r="63" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="32"/>
@@ -32692,24 +32634,24 @@
       </c>
     </row>
     <row r="73" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="171" t="s">
+      <c r="B73" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="172"/>
-      <c r="D73" s="172"/>
-      <c r="E73" s="172"/>
-      <c r="F73" s="172"/>
-      <c r="G73" s="173"/>
+      <c r="C73" s="174"/>
+      <c r="D73" s="174"/>
+      <c r="E73" s="174"/>
+      <c r="F73" s="174"/>
+      <c r="G73" s="175"/>
     </row>
     <row r="75" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="161" t="s">
+      <c r="B76" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="C76" s="162"/>
-      <c r="D76" s="162"/>
-      <c r="E76" s="162"/>
-      <c r="F76" s="163"/>
+      <c r="C76" s="164"/>
+      <c r="D76" s="164"/>
+      <c r="E76" s="164"/>
+      <c r="F76" s="165"/>
     </row>
     <row r="77" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="20"/>
@@ -32863,13 +32805,13 @@
       </c>
     </row>
     <row r="86" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="149" t="s">
+      <c r="B86" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="150"/>
-      <c r="D86" s="150"/>
-      <c r="E86" s="150"/>
-      <c r="F86" s="151"/>
+      <c r="C86" s="155"/>
+      <c r="D86" s="155"/>
+      <c r="E86" s="155"/>
+      <c r="F86" s="156"/>
       <c r="G86" s="47"/>
       <c r="H86" s="46"/>
       <c r="I86" s="46"/>
@@ -32888,10 +32830,10 @@
     </row>
     <row r="88" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="2:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="167" t="s">
+      <c r="B89" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="168"/>
+      <c r="C89" s="170"/>
     </row>
     <row r="90" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="82"/>
@@ -32956,28 +32898,28 @@
       </c>
     </row>
     <row r="98" spans="2:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="169" t="s">
+      <c r="B98" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="C98" s="170"/>
+      <c r="C98" s="172"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C99" s="76"/>
     </row>
     <row r="100" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="161" t="s">
+      <c r="B101" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="C101" s="162"/>
-      <c r="D101" s="162"/>
-      <c r="E101" s="162"/>
-      <c r="F101" s="162"/>
-      <c r="G101" s="162"/>
-      <c r="H101" s="162"/>
-      <c r="I101" s="162"/>
-      <c r="J101" s="162"/>
-      <c r="K101" s="163"/>
+      <c r="C101" s="164"/>
+      <c r="D101" s="164"/>
+      <c r="E101" s="164"/>
+      <c r="F101" s="164"/>
+      <c r="G101" s="164"/>
+      <c r="H101" s="164"/>
+      <c r="I101" s="164"/>
+      <c r="J101" s="164"/>
+      <c r="K101" s="165"/>
     </row>
     <row r="102" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="20"/>
@@ -33266,28 +33208,28 @@
       </c>
     </row>
     <row r="111" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="149" t="s">
+      <c r="B111" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="C111" s="150"/>
-      <c r="D111" s="150"/>
-      <c r="E111" s="150"/>
-      <c r="F111" s="150"/>
-      <c r="G111" s="150"/>
-      <c r="H111" s="150"/>
-      <c r="I111" s="150"/>
-      <c r="J111" s="150"/>
-      <c r="K111" s="151"/>
+      <c r="C111" s="155"/>
+      <c r="D111" s="155"/>
+      <c r="E111" s="155"/>
+      <c r="F111" s="155"/>
+      <c r="G111" s="155"/>
+      <c r="H111" s="155"/>
+      <c r="I111" s="155"/>
+      <c r="J111" s="155"/>
+      <c r="K111" s="156"/>
     </row>
     <row r="113" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="114" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="161" t="s">
+      <c r="B114" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="C114" s="162"/>
-      <c r="D114" s="162"/>
-      <c r="E114" s="162"/>
-      <c r="F114" s="163"/>
+      <c r="C114" s="164"/>
+      <c r="D114" s="164"/>
+      <c r="E114" s="164"/>
+      <c r="F114" s="165"/>
     </row>
     <row r="115" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="85"/>
@@ -33390,13 +33332,13 @@
       </c>
     </row>
     <row r="121" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="149" t="s">
+      <c r="B121" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="C121" s="150"/>
-      <c r="D121" s="150"/>
-      <c r="E121" s="150"/>
-      <c r="F121" s="151"/>
+      <c r="C121" s="155"/>
+      <c r="D121" s="155"/>
+      <c r="E121" s="155"/>
+      <c r="F121" s="156"/>
       <c r="G121" s="15"/>
       <c r="H121" s="46"/>
       <c r="I121" s="46"/>
@@ -33404,10 +33346,10 @@
     </row>
     <row r="123" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="124" spans="2:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="146" t="s">
+      <c r="B124" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="C124" s="148"/>
+      <c r="C124" s="159"/>
     </row>
     <row r="125" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B125" s="82"/>
@@ -33450,26 +33392,26 @@
     </row>
     <row r="130" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C130" s="70">
         <v>6.1316910611449562E-3</v>
       </c>
     </row>
     <row r="131" spans="2:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="143" t="s">
+      <c r="B131" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="C131" s="145"/>
+      <c r="C131" s="144"/>
     </row>
     <row r="133" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="158" t="s">
+      <c r="B134" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="C134" s="159"/>
-      <c r="D134" s="159"/>
-      <c r="E134" s="160"/>
+      <c r="C134" s="161"/>
+      <c r="D134" s="161"/>
+      <c r="E134" s="162"/>
     </row>
     <row r="135" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="91"/>
@@ -33596,27 +33538,27 @@
       </c>
     </row>
     <row r="144" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="164" t="s">
+      <c r="B144" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="C144" s="165"/>
-      <c r="D144" s="165"/>
-      <c r="E144" s="166"/>
+      <c r="C144" s="167"/>
+      <c r="D144" s="167"/>
+      <c r="E144" s="168"/>
     </row>
     <row r="146" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="147" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="152" t="s">
+      <c r="B147" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="C147" s="153"/>
-      <c r="D147" s="153"/>
-      <c r="E147" s="153"/>
-      <c r="F147" s="153"/>
-      <c r="G147" s="153"/>
-      <c r="H147" s="153"/>
-      <c r="I147" s="153"/>
-      <c r="J147" s="153"/>
-      <c r="K147" s="154"/>
+      <c r="C147" s="149"/>
+      <c r="D147" s="149"/>
+      <c r="E147" s="149"/>
+      <c r="F147" s="149"/>
+      <c r="G147" s="149"/>
+      <c r="H147" s="149"/>
+      <c r="I147" s="149"/>
+      <c r="J147" s="149"/>
+      <c r="K147" s="150"/>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B148" s="78"/>
@@ -33745,33 +33687,33 @@
       </c>
     </row>
     <row r="152" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="149" t="s">
+      <c r="B152" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="C152" s="150"/>
-      <c r="D152" s="150"/>
-      <c r="E152" s="150"/>
-      <c r="F152" s="150"/>
-      <c r="G152" s="150"/>
-      <c r="H152" s="150"/>
-      <c r="I152" s="150"/>
-      <c r="J152" s="150"/>
-      <c r="K152" s="151"/>
+      <c r="C152" s="155"/>
+      <c r="D152" s="155"/>
+      <c r="E152" s="155"/>
+      <c r="F152" s="155"/>
+      <c r="G152" s="155"/>
+      <c r="H152" s="155"/>
+      <c r="I152" s="155"/>
+      <c r="J152" s="155"/>
+      <c r="K152" s="156"/>
     </row>
     <row r="154" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="155" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="152" t="s">
+      <c r="B155" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="C155" s="153"/>
-      <c r="D155" s="153"/>
-      <c r="E155" s="153"/>
-      <c r="F155" s="153"/>
-      <c r="G155" s="153"/>
-      <c r="H155" s="153"/>
-      <c r="I155" s="153"/>
-      <c r="J155" s="153"/>
-      <c r="K155" s="154"/>
+      <c r="C155" s="149"/>
+      <c r="D155" s="149"/>
+      <c r="E155" s="149"/>
+      <c r="F155" s="149"/>
+      <c r="G155" s="149"/>
+      <c r="H155" s="149"/>
+      <c r="I155" s="149"/>
+      <c r="J155" s="149"/>
+      <c r="K155" s="150"/>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B156" s="78"/>
@@ -33900,18 +33842,18 @@
       </c>
     </row>
     <row r="160" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="149" t="s">
+      <c r="B160" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="C160" s="150"/>
-      <c r="D160" s="150"/>
-      <c r="E160" s="150"/>
-      <c r="F160" s="150"/>
-      <c r="G160" s="150"/>
-      <c r="H160" s="150"/>
-      <c r="I160" s="150"/>
-      <c r="J160" s="150"/>
-      <c r="K160" s="151"/>
+      <c r="C160" s="155"/>
+      <c r="D160" s="155"/>
+      <c r="E160" s="155"/>
+      <c r="F160" s="155"/>
+      <c r="G160" s="155"/>
+      <c r="H160" s="155"/>
+      <c r="I160" s="155"/>
+      <c r="J160" s="155"/>
+      <c r="K160" s="156"/>
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B161" s="77"/>
@@ -33938,18 +33880,18 @@
       <c r="K162" s="77"/>
     </row>
     <row r="163" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="152" t="s">
+      <c r="B163" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="C163" s="153"/>
-      <c r="D163" s="153"/>
-      <c r="E163" s="153"/>
-      <c r="F163" s="153"/>
-      <c r="G163" s="153"/>
-      <c r="H163" s="153"/>
-      <c r="I163" s="153"/>
-      <c r="J163" s="153"/>
-      <c r="K163" s="154"/>
+      <c r="C163" s="149"/>
+      <c r="D163" s="149"/>
+      <c r="E163" s="149"/>
+      <c r="F163" s="149"/>
+      <c r="G163" s="149"/>
+      <c r="H163" s="149"/>
+      <c r="I163" s="149"/>
+      <c r="J163" s="149"/>
+      <c r="K163" s="150"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B164" s="78"/>
@@ -34078,33 +34020,33 @@
       </c>
     </row>
     <row r="168" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="149" t="s">
+      <c r="B168" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="C168" s="150"/>
-      <c r="D168" s="150"/>
-      <c r="E168" s="150"/>
-      <c r="F168" s="150"/>
-      <c r="G168" s="150"/>
-      <c r="H168" s="150"/>
-      <c r="I168" s="150"/>
-      <c r="J168" s="150"/>
-      <c r="K168" s="151"/>
+      <c r="C168" s="155"/>
+      <c r="D168" s="155"/>
+      <c r="E168" s="155"/>
+      <c r="F168" s="155"/>
+      <c r="G168" s="155"/>
+      <c r="H168" s="155"/>
+      <c r="I168" s="155"/>
+      <c r="J168" s="155"/>
+      <c r="K168" s="156"/>
     </row>
     <row r="170" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="171" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="152" t="s">
+      <c r="B171" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="C171" s="153"/>
-      <c r="D171" s="153"/>
-      <c r="E171" s="153"/>
-      <c r="F171" s="153"/>
-      <c r="G171" s="153"/>
-      <c r="H171" s="153"/>
-      <c r="I171" s="153"/>
-      <c r="J171" s="153"/>
-      <c r="K171" s="154"/>
+      <c r="C171" s="149"/>
+      <c r="D171" s="149"/>
+      <c r="E171" s="149"/>
+      <c r="F171" s="149"/>
+      <c r="G171" s="149"/>
+      <c r="H171" s="149"/>
+      <c r="I171" s="149"/>
+      <c r="J171" s="149"/>
+      <c r="K171" s="150"/>
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B172" s="78"/>
@@ -34233,33 +34175,33 @@
       </c>
     </row>
     <row r="176" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="149" t="s">
+      <c r="B176" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="C176" s="150"/>
-      <c r="D176" s="150"/>
-      <c r="E176" s="150"/>
-      <c r="F176" s="150"/>
-      <c r="G176" s="150"/>
-      <c r="H176" s="150"/>
-      <c r="I176" s="150"/>
-      <c r="J176" s="150"/>
-      <c r="K176" s="151"/>
+      <c r="C176" s="155"/>
+      <c r="D176" s="155"/>
+      <c r="E176" s="155"/>
+      <c r="F176" s="155"/>
+      <c r="G176" s="155"/>
+      <c r="H176" s="155"/>
+      <c r="I176" s="155"/>
+      <c r="J176" s="155"/>
+      <c r="K176" s="156"/>
     </row>
     <row r="178" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="179" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="152" t="s">
+      <c r="B179" s="148" t="s">
         <v>44</v>
       </c>
-      <c r="C179" s="153"/>
-      <c r="D179" s="153"/>
-      <c r="E179" s="153"/>
-      <c r="F179" s="153"/>
-      <c r="G179" s="153"/>
-      <c r="H179" s="153"/>
-      <c r="I179" s="153"/>
-      <c r="J179" s="153"/>
-      <c r="K179" s="154"/>
+      <c r="C179" s="149"/>
+      <c r="D179" s="149"/>
+      <c r="E179" s="149"/>
+      <c r="F179" s="149"/>
+      <c r="G179" s="149"/>
+      <c r="H179" s="149"/>
+      <c r="I179" s="149"/>
+      <c r="J179" s="149"/>
+      <c r="K179" s="150"/>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B180" s="78"/>
@@ -34388,26 +34330,26 @@
       </c>
     </row>
     <row r="184" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="155" t="s">
+      <c r="B184" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="C184" s="156"/>
-      <c r="D184" s="156"/>
-      <c r="E184" s="156"/>
-      <c r="F184" s="156"/>
-      <c r="G184" s="156"/>
-      <c r="H184" s="156"/>
-      <c r="I184" s="156"/>
-      <c r="J184" s="156"/>
-      <c r="K184" s="157"/>
+      <c r="C184" s="152"/>
+      <c r="D184" s="152"/>
+      <c r="E184" s="152"/>
+      <c r="F184" s="152"/>
+      <c r="G184" s="152"/>
+      <c r="H184" s="152"/>
+      <c r="I184" s="152"/>
+      <c r="J184" s="152"/>
+      <c r="K184" s="153"/>
     </row>
     <row r="186" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="187" spans="2:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="146" t="s">
+      <c r="B187" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="C187" s="147"/>
-      <c r="D187" s="148"/>
+      <c r="C187" s="158"/>
+      <c r="D187" s="159"/>
     </row>
     <row r="188" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B188" s="78"/>
@@ -34507,11 +34449,11 @@
       </c>
     </row>
     <row r="197" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="143" t="s">
+      <c r="B197" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="C197" s="144"/>
-      <c r="D197" s="145"/>
+      <c r="C197" s="143"/>
+      <c r="D197" s="144"/>
     </row>
     <row r="198" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="103"/>
@@ -34520,12 +34462,12 @@
     </row>
     <row r="199" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="200" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="137" t="s">
+      <c r="B200" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="C200" s="138"/>
-      <c r="D200" s="138"/>
-      <c r="E200" s="139"/>
+      <c r="C200" s="146"/>
+      <c r="D200" s="146"/>
+      <c r="E200" s="147"/>
     </row>
     <row r="201" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B201" s="110"/>
@@ -34652,21 +34594,21 @@
       </c>
     </row>
     <row r="210" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="140" t="s">
+      <c r="B210" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="C210" s="141"/>
-      <c r="D210" s="141"/>
-      <c r="E210" s="142"/>
+      <c r="C210" s="140"/>
+      <c r="D210" s="140"/>
+      <c r="E210" s="141"/>
     </row>
     <row r="212" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="213" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="137" t="s">
+      <c r="B213" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="C213" s="138"/>
-      <c r="D213" s="138"/>
-      <c r="E213" s="139"/>
+      <c r="C213" s="146"/>
+      <c r="D213" s="146"/>
+      <c r="E213" s="147"/>
     </row>
     <row r="214" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B214" s="110"/>
@@ -34695,21 +34637,21 @@
       </c>
     </row>
     <row r="216" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="140" t="s">
+      <c r="B216" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="C216" s="141"/>
-      <c r="D216" s="141"/>
-      <c r="E216" s="142"/>
+      <c r="C216" s="140"/>
+      <c r="D216" s="140"/>
+      <c r="E216" s="141"/>
     </row>
     <row r="218" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="219" spans="2:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="137" t="s">
+      <c r="B219" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="C219" s="138"/>
-      <c r="D219" s="138"/>
-      <c r="E219" s="139"/>
+      <c r="C219" s="137"/>
+      <c r="D219" s="137"/>
+      <c r="E219" s="138"/>
     </row>
     <row r="220" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B220" s="78"/>
@@ -34725,41 +34667,41 @@
     </row>
     <row r="221" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B221" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C221" s="101">
+        <v>-5.2273714548378591E-2</v>
+      </c>
+      <c r="D221" s="101">
+        <v>-4.2490297987852033E-2</v>
+      </c>
+      <c r="E221" s="102">
+        <v>2.4392161096373044E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="139" t="s">
+        <v>36</v>
+      </c>
+      <c r="C222" s="140"/>
+      <c r="D222" s="140"/>
+      <c r="E222" s="141"/>
+    </row>
+    <row r="224" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="225" spans="2:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="C221" s="101">
-        <v>-5.2210064592201288E-2</v>
-      </c>
-      <c r="D221" s="101">
-        <v>-4.2662495052286142E-2</v>
-      </c>
-      <c r="E221" s="102">
-        <v>2.451920994885709E-2</v>
-      </c>
-    </row>
-    <row r="222" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="140" t="s">
-        <v>36</v>
-      </c>
-      <c r="C222" s="141"/>
-      <c r="D222" s="141"/>
-      <c r="E222" s="142"/>
-    </row>
-    <row r="224" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="225" spans="2:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="137" t="s">
-        <v>75</v>
-      </c>
-      <c r="C225" s="138"/>
-      <c r="D225" s="138"/>
-      <c r="E225" s="138"/>
-      <c r="F225" s="138"/>
-      <c r="G225" s="138"/>
-      <c r="H225" s="139"/>
-    </row>
-    <row r="226" spans="2:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C225" s="137"/>
+      <c r="D225" s="137"/>
+      <c r="E225" s="137"/>
+      <c r="F225" s="137"/>
+      <c r="G225" s="137"/>
+      <c r="H225" s="138"/>
+    </row>
+    <row r="226" spans="2:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B226" s="116" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C226" s="117" t="s">
         <v>50</v>
@@ -34780,407 +34722,458 @@
         <v>55</v>
       </c>
     </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B227" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C227" s="115">
+        <v>0.43934662082482173</v>
+      </c>
+      <c r="D227" s="115">
+        <v>0.49494448788794143</v>
+      </c>
+      <c r="E227" s="115">
+        <v>0.35082602250205558</v>
+      </c>
+      <c r="F227" s="115">
+        <v>-8.4247829452864742E-2</v>
+      </c>
+      <c r="G227" s="115">
+        <v>-5.888109222080784E-2</v>
+      </c>
+      <c r="H227" s="63">
+        <v>6.393746503162373E-2</v>
+      </c>
+      <c r="J227" s="76"/>
+      <c r="K227" s="76"/>
+      <c r="L227" s="76"/>
+    </row>
+    <row r="228" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B228" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="C228" s="99">
+        <v>0.15667287926878679</v>
+      </c>
+      <c r="D228" s="99">
+        <v>0.24491072588551474</v>
+      </c>
+      <c r="E228" s="99">
+        <v>0.57207303211023308</v>
+      </c>
+      <c r="F228" s="99">
+        <v>-5.2391751211731591E-2</v>
+      </c>
+      <c r="G228" s="99">
+        <v>-4.3047240969963568E-2</v>
+      </c>
+      <c r="H228" s="66">
+        <v>2.6861758877734787E-2</v>
+      </c>
+      <c r="J228" s="76"/>
+      <c r="K228" s="76"/>
+      <c r="L228" s="76"/>
+    </row>
+    <row r="229" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B229" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="C229" s="99">
+        <v>0.21289757957831135</v>
+      </c>
+      <c r="D229" s="99">
+        <v>0.38034056017872597</v>
+      </c>
+      <c r="E229" s="99">
+        <v>0.60510690300621539</v>
+      </c>
+      <c r="F229" s="99">
+        <v>-0.11266346476029326</v>
+      </c>
+      <c r="G229" s="99">
+        <v>-2.3789754780299543E-3</v>
+      </c>
+      <c r="H229" s="66">
+        <v>0.11453641132339198</v>
+      </c>
+      <c r="J229" s="76"/>
+      <c r="K229" s="76"/>
+      <c r="L229" s="76"/>
+    </row>
+    <row r="230" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B230" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C230" s="99">
+        <v>0.34382808409987781</v>
+      </c>
+      <c r="D230" s="99">
+        <v>0.38272408309302453</v>
+      </c>
+      <c r="E230" s="99">
+        <v>0.48497800477293235</v>
+      </c>
+      <c r="F230" s="99">
+        <v>-0.10853418526846886</v>
+      </c>
+      <c r="G230" s="99">
+        <v>-7.5042097533566221E-2</v>
+      </c>
+      <c r="H230" s="66">
+        <v>0.11835551698521735</v>
+      </c>
+      <c r="J230" s="76"/>
+      <c r="K230" s="76"/>
+      <c r="L230" s="76"/>
+    </row>
+    <row r="231" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B231" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C231" s="99">
+        <v>0.36539254320689779</v>
+      </c>
+      <c r="D231" s="99">
+        <v>0.36954869025422926</v>
+      </c>
+      <c r="E231" s="99">
+        <v>0.49344163778149719</v>
+      </c>
+      <c r="F231" s="99">
+        <v>-0.12293248500753334</v>
+      </c>
+      <c r="G231" s="99">
+        <v>-7.0866833831871867E-2</v>
+      </c>
+      <c r="H231" s="66">
+        <v>9.0987144147674837E-2</v>
+      </c>
+      <c r="J231" s="76"/>
+      <c r="K231" s="76"/>
+      <c r="L231" s="76"/>
+    </row>
+    <row r="232" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B232" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C232" s="99">
+        <v>0.47575263216917624</v>
+      </c>
+      <c r="D232" s="99">
+        <v>0.63581394034149319</v>
+      </c>
+      <c r="E232" s="99">
+        <v>0.42873833472236006</v>
+      </c>
+      <c r="F232" s="99">
+        <v>-7.2642006325497277E-2</v>
+      </c>
+      <c r="G232" s="99">
+        <v>-4.3626820408998346E-2</v>
+      </c>
+      <c r="H232" s="66">
+        <v>5.2363845163387934E-2</v>
+      </c>
+      <c r="J232" s="76"/>
+      <c r="K232" s="76"/>
+      <c r="L232" s="76"/>
+    </row>
+    <row r="233" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B233" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C233" s="99">
+        <v>0.25935262807570569</v>
+      </c>
+      <c r="D233" s="99">
+        <v>0.31379068206282912</v>
+      </c>
+      <c r="E233" s="99">
+        <v>0.51241910836845539</v>
+      </c>
+      <c r="F233" s="99">
+        <v>-0.1441885780986934</v>
+      </c>
+      <c r="G233" s="99">
+        <v>-0.16500056713894357</v>
+      </c>
+      <c r="H233" s="66">
+        <v>9.0355551299775905E-2</v>
+      </c>
+      <c r="J233" s="76"/>
+      <c r="K233" s="76"/>
+      <c r="L233" s="76"/>
+    </row>
+    <row r="234" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B234" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C234" s="99">
+        <v>0.56136479697080321</v>
+      </c>
+      <c r="D234" s="99">
+        <v>0.66187902383413022</v>
+      </c>
+      <c r="E234" s="99">
+        <v>0.35626433179528005</v>
+      </c>
+      <c r="F234" s="99">
+        <v>-4.7731401992734845E-2</v>
+      </c>
+      <c r="G234" s="99">
+        <v>-4.5810116446944438E-2</v>
+      </c>
+      <c r="H234" s="66">
+        <v>2.2440218788844946E-2</v>
+      </c>
+      <c r="J234" s="76"/>
+      <c r="K234" s="76"/>
+      <c r="L234" s="76"/>
+    </row>
+    <row r="235" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B235" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C235" s="99">
+        <v>0.24062973948673805</v>
+      </c>
+      <c r="D235" s="99">
+        <v>0.3173175617040831</v>
+      </c>
+      <c r="E235" s="99">
+        <v>0.43499554137639085</v>
+      </c>
+      <c r="F235" s="99">
+        <v>-0.11309556502471563</v>
+      </c>
+      <c r="G235" s="99">
+        <v>-0.11031904569687961</v>
+      </c>
+      <c r="H235" s="66">
+        <v>5.7057190977478855E-2</v>
+      </c>
+      <c r="J235" s="76"/>
+      <c r="K235" s="76"/>
+      <c r="L235" s="76"/>
+    </row>
+    <row r="236" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B236" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="C236" s="99">
+        <v>0.12055327817284682</v>
+      </c>
+      <c r="D236" s="99">
+        <v>0.26652589166429769</v>
+      </c>
+      <c r="E236" s="99">
+        <v>0.64480707662969428</v>
+      </c>
+      <c r="F236" s="99">
+        <v>-2.5840464320336362E-2</v>
+      </c>
+      <c r="G236" s="99">
+        <v>-5.9202437125975838E-3</v>
+      </c>
+      <c r="H236" s="66">
+        <v>0.10715409863834657</v>
+      </c>
+      <c r="J236" s="76"/>
+      <c r="K236" s="76"/>
+      <c r="L236" s="76"/>
+    </row>
+    <row r="237" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B237" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="C237" s="99">
+        <v>0.62748431599146692</v>
+      </c>
+      <c r="D237" s="99">
+        <v>0.60809506154310122</v>
+      </c>
+      <c r="E237" s="99">
+        <v>0.29913233029030201</v>
+      </c>
+      <c r="F237" s="99">
+        <v>-4.0127449627844647E-2</v>
+      </c>
+      <c r="G237" s="99">
+        <v>-2.498968779507893E-2</v>
+      </c>
+      <c r="H237" s="66">
+        <v>5.0358491979161923E-2</v>
+      </c>
+      <c r="J237" s="76"/>
+      <c r="K237" s="76"/>
+      <c r="L237" s="76"/>
+    </row>
+    <row r="238" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B238" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="C238" s="99">
+        <v>0.52222049520915736</v>
+      </c>
+      <c r="D238" s="99">
+        <v>0.60327374983906756</v>
+      </c>
+      <c r="E238" s="99">
+        <v>0.34539660421585255</v>
+      </c>
+      <c r="F238" s="99">
+        <v>4.0386162579642004E-4</v>
+      </c>
+      <c r="G238" s="99">
+        <v>4.6990237965192083E-3</v>
+      </c>
+      <c r="H238" s="66">
+        <v>-0.11163613710165882</v>
+      </c>
+      <c r="J238" s="76"/>
+      <c r="K238" s="76"/>
+      <c r="L238" s="76"/>
+    </row>
+    <row r="239" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B239" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C239" s="99">
+        <v>0.66790512857918538</v>
+      </c>
+      <c r="D239" s="99">
+        <v>0.7486423380871684</v>
+      </c>
+      <c r="E239" s="99">
+        <v>0.2707540653949434</v>
+      </c>
+      <c r="F239" s="99">
+        <v>6.4938331681820394E-2</v>
+      </c>
+      <c r="G239" s="99">
+        <v>-1.0728812413038691E-2</v>
+      </c>
+      <c r="H239" s="66">
+        <v>-8.8755061130860291E-2</v>
+      </c>
+      <c r="J239" s="76"/>
+      <c r="K239" s="76"/>
+      <c r="L239" s="76"/>
+    </row>
+    <row r="240" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B240" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="C240" s="99">
+        <v>0.52401320421430464</v>
+      </c>
+      <c r="D240" s="99">
+        <v>0.64381494530801009</v>
+      </c>
+      <c r="E240" s="99">
+        <v>0.35177640522338888</v>
+      </c>
+      <c r="F240" s="99">
+        <v>-4.680254020583019E-2</v>
+      </c>
+      <c r="G240" s="99">
+        <v>-4.1030806978012757E-2</v>
+      </c>
+      <c r="H240" s="66">
+        <v>2.1348396567821115E-2</v>
+      </c>
+      <c r="J240" s="76"/>
+      <c r="K240" s="76"/>
+      <c r="L240" s="76"/>
+    </row>
+    <row r="241" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B241" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="C241" s="99">
+        <v>0.50567374219516537</v>
+      </c>
+      <c r="D241" s="99">
+        <v>0.55508422776669164</v>
+      </c>
+      <c r="E241" s="99">
+        <v>0.38439625672154398</v>
+      </c>
+      <c r="F241" s="99">
+        <v>1.3243396060673707E-2</v>
+      </c>
+      <c r="G241" s="99">
+        <v>-2.4605795761167948E-2</v>
+      </c>
+      <c r="H241" s="66">
+        <v>-3.918199744946993E-2</v>
+      </c>
+      <c r="J241" s="76"/>
+      <c r="K241" s="76"/>
+      <c r="L241" s="76"/>
+    </row>
+    <row r="242" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B242" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="C242" s="99">
+        <v>0.56869033755174414</v>
+      </c>
+      <c r="D242" s="99">
+        <v>0.71040641249722558</v>
+      </c>
+      <c r="E242" s="99">
+        <v>0.36292856076507141</v>
+      </c>
+      <c r="F242" s="99">
+        <v>-1.2614829713067155E-2</v>
+      </c>
+      <c r="G242" s="99">
+        <v>3.5433713886243723E-3</v>
+      </c>
+      <c r="H242" s="66">
+        <v>-5.6412239660276198E-3</v>
+      </c>
+      <c r="J242" s="76"/>
+      <c r="K242" s="76"/>
+      <c r="L242" s="76"/>
+    </row>
+    <row r="243" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="C227" s="115">
-        <v>0.66819499696581486</v>
-      </c>
-      <c r="D227" s="115">
-        <v>0.7494774458903648</v>
-      </c>
-      <c r="E227" s="115">
-        <v>0.27010330919286885</v>
-      </c>
-      <c r="F227" s="115">
-        <v>6.5228200068449871E-2</v>
-      </c>
-      <c r="G227" s="115">
-        <v>-9.8937046098422909E-3</v>
-      </c>
-      <c r="H227" s="63">
-        <v>-8.9405817332934845E-2</v>
-      </c>
-    </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B228" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="C228" s="99">
-        <v>0.65202289141877823</v>
-      </c>
-      <c r="D228" s="99">
-        <v>0.64838107479495655</v>
-      </c>
-      <c r="E228" s="99">
-        <v>0.31550751657895354</v>
-      </c>
-      <c r="F228" s="99">
-        <v>6.4609267083400979E-2</v>
-      </c>
-      <c r="G228" s="99">
-        <v>-5.0665650915712845E-2</v>
-      </c>
-      <c r="H228" s="66">
-        <v>-6.1435143925705538E-2</v>
-      </c>
-    </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B229" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="C229" s="99">
-        <v>0.50569955983597303</v>
-      </c>
-      <c r="D229" s="99">
-        <v>0.56299612505172858</v>
-      </c>
-      <c r="E229" s="99">
-        <v>0.39398596725693286</v>
-      </c>
-      <c r="F229" s="99">
-        <v>1.3269213701481375E-2</v>
-      </c>
-      <c r="G229" s="99">
-        <v>-1.6693898476131008E-2</v>
-      </c>
-      <c r="H229" s="66">
-        <v>-2.9592286914081056E-2</v>
-      </c>
-    </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B230" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="C230" s="99">
-        <v>0.52385525905928765</v>
-      </c>
-      <c r="D230" s="99">
-        <v>0.60245561208597231</v>
-      </c>
-      <c r="E230" s="99">
-        <v>0.34607264423284073</v>
-      </c>
-      <c r="F230" s="99">
-        <v>2.0386254759267031E-3</v>
-      </c>
-      <c r="G230" s="99">
-        <v>3.8808860434239589E-3</v>
-      </c>
-      <c r="H230" s="66">
-        <v>-0.11096009708467064</v>
-      </c>
-    </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B231" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="C231" s="99">
-        <v>0.57040866568193016</v>
-      </c>
-      <c r="D231" s="99">
-        <v>0.70958045038741613</v>
-      </c>
-      <c r="E231" s="99">
-        <v>0.36381564531444011</v>
-      </c>
-      <c r="F231" s="99">
-        <v>-1.0896501582881135E-2</v>
-      </c>
-      <c r="G231" s="99">
-        <v>2.7174092788149196E-3</v>
-      </c>
-      <c r="H231" s="66">
-        <v>-4.7541394166589201E-3</v>
-      </c>
-    </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B232" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="C232" s="99">
-        <v>0.11927621131150459</v>
-      </c>
-      <c r="D232" s="99">
-        <v>0.26630732025540832</v>
-      </c>
-      <c r="E232" s="99">
-        <v>0.63871430692334341</v>
-      </c>
-      <c r="F232" s="99">
-        <v>-2.7117531181678589E-2</v>
-      </c>
-      <c r="G232" s="99">
-        <v>-6.1388151214869513E-3</v>
-      </c>
-      <c r="H232" s="66">
-        <v>0.10106132893199571</v>
-      </c>
-    </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B233" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="C233" s="99">
-        <v>0.62774472304859041</v>
-      </c>
-      <c r="D233" s="99">
-        <v>0.60828965386976441</v>
-      </c>
-      <c r="E233" s="99">
-        <v>0.29763036854464647</v>
-      </c>
-      <c r="F233" s="99">
-        <v>-3.9867042570721156E-2</v>
-      </c>
-      <c r="G233" s="99">
-        <v>-2.479509546841574E-2</v>
-      </c>
-      <c r="H233" s="66">
-        <v>4.885653023350639E-2</v>
-      </c>
-    </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B234" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="C234" s="99">
-        <v>0.56272971685270901</v>
-      </c>
-      <c r="D234" s="99">
-        <v>0.66236727470732382</v>
-      </c>
-      <c r="E234" s="99">
-        <v>0.35196269845347578</v>
-      </c>
-      <c r="F234" s="99">
-        <v>-4.6366482110829055E-2</v>
-      </c>
-      <c r="G234" s="99">
-        <v>-4.5321865573750841E-2</v>
-      </c>
-      <c r="H234" s="66">
-        <v>1.8138585447040667E-2</v>
-      </c>
-    </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B235" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="C235" s="99">
-        <v>0.52414302267157498</v>
-      </c>
-      <c r="D235" s="99">
-        <v>0.64378659393168791</v>
-      </c>
-      <c r="E235" s="99">
-        <v>0.35114041794087669</v>
-      </c>
-      <c r="F235" s="99">
-        <v>-4.6672721748559853E-2</v>
-      </c>
-      <c r="G235" s="99">
-        <v>-4.1059158354334935E-2</v>
-      </c>
-      <c r="H235" s="66">
-        <v>2.071240928530893E-2</v>
-      </c>
-    </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B236" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="C236" s="99">
-        <v>0.15669458665084382</v>
-      </c>
-      <c r="D236" s="99">
-        <v>0.24495301439236089</v>
-      </c>
-      <c r="E236" s="99">
-        <v>0.57214883249302873</v>
-      </c>
-      <c r="F236" s="99">
-        <v>-5.2370043829674556E-2</v>
-      </c>
-      <c r="G236" s="99">
-        <v>-4.3004952463117418E-2</v>
-      </c>
-      <c r="H236" s="66">
-        <v>2.693755926053043E-2</v>
-      </c>
-    </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B237" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="C237" s="99">
-        <v>0.47601420585616039</v>
-      </c>
-      <c r="D237" s="99">
-        <v>0.6358837351530563</v>
-      </c>
-      <c r="E237" s="99">
-        <v>0.4287859613599932</v>
-      </c>
-      <c r="F237" s="99">
-        <v>-7.2380432638513126E-2</v>
-      </c>
-      <c r="G237" s="99">
-        <v>-4.3557025597435239E-2</v>
-      </c>
-      <c r="H237" s="66">
-        <v>5.241147180102107E-2</v>
-      </c>
-    </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B238" s="79" t="s">
-        <v>68</v>
-      </c>
-      <c r="C238" s="99">
-        <v>0.43824824328658485</v>
-      </c>
-      <c r="D238" s="99">
-        <v>0.49394990815523226</v>
-      </c>
-      <c r="E238" s="99">
-        <v>0.35043976152529366</v>
-      </c>
-      <c r="F238" s="99">
-        <v>-8.5346206991101625E-2</v>
-      </c>
-      <c r="G238" s="99">
-        <v>-5.9875671953517007E-2</v>
-      </c>
-      <c r="H238" s="66">
-        <v>6.355120405486181E-2</v>
-      </c>
-    </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B239" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="C239" s="99">
-        <v>0.34367551745766256</v>
-      </c>
-      <c r="D239" s="99">
-        <v>0.38273050386786533</v>
-      </c>
-      <c r="E239" s="99">
-        <v>0.4853782002257912</v>
-      </c>
-      <c r="F239" s="99">
-        <v>-0.10868675191068411</v>
-      </c>
-      <c r="G239" s="99">
-        <v>-7.5035676758725411E-2</v>
-      </c>
-      <c r="H239" s="66">
-        <v>0.1187557124380762</v>
-      </c>
-    </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B240" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="C240" s="99">
-        <v>0.21328647622491412</v>
-      </c>
-      <c r="D240" s="99">
-        <v>0.38141836919182787</v>
-      </c>
-      <c r="E240" s="99">
-        <v>0.60493571132310242</v>
-      </c>
-      <c r="F240" s="99">
-        <v>-0.11227456811369049</v>
-      </c>
-      <c r="G240" s="99">
-        <v>-1.3011664649280608E-3</v>
-      </c>
-      <c r="H240" s="66">
-        <v>0.11436521964027901</v>
-      </c>
-    </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B241" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C241" s="99">
-        <v>0.23762620565175702</v>
-      </c>
-      <c r="D241" s="99">
-        <v>0.3157467990298381</v>
-      </c>
-      <c r="E241" s="99">
-        <v>0.43326708795748392</v>
-      </c>
-      <c r="F241" s="99">
-        <v>-0.11609909885969666</v>
-      </c>
-      <c r="G241" s="99">
-        <v>-0.11188980837112461</v>
-      </c>
-      <c r="H241" s="66">
-        <v>5.5328737558571928E-2</v>
-      </c>
-    </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B242" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="C242" s="99">
-        <v>0.36098022912047306</v>
-      </c>
-      <c r="D242" s="99">
-        <v>0.37382206208425722</v>
-      </c>
-      <c r="E242" s="99">
-        <v>0.50552981155390797</v>
-      </c>
-      <c r="F242" s="99">
-        <v>-0.12734479909395807</v>
-      </c>
-      <c r="G242" s="99">
-        <v>-6.6593462001843906E-2</v>
-      </c>
-      <c r="H242" s="66">
-        <v>0.10307531792008562</v>
-      </c>
-    </row>
-    <row r="243" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="80" t="s">
-        <v>73</v>
-      </c>
       <c r="C243" s="101">
-        <v>0.25931270257070549</v>
+        <v>0.65007519432375294</v>
       </c>
       <c r="D243" s="101">
-        <v>0.31260267282333609</v>
+        <v>0.64797961718012065</v>
       </c>
       <c r="E243" s="101">
-        <v>0.512054823704861</v>
+        <v>0.31608860793131316</v>
       </c>
       <c r="F243" s="101">
-        <v>-0.1442285036036936</v>
+        <v>6.2661569988375687E-2</v>
       </c>
       <c r="G243" s="101">
-        <v>-0.16618857637843659</v>
+        <v>-5.1067108530548744E-2</v>
       </c>
       <c r="H243" s="102">
-        <v>8.9991266636181511E-2</v>
-      </c>
-    </row>
-    <row r="244" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B244" s="140" t="s">
+        <v>-6.0854052573345918E-2</v>
+      </c>
+      <c r="J243" s="76"/>
+      <c r="K243" s="76"/>
+      <c r="L243" s="76"/>
+    </row>
+    <row r="244" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="C244" s="141"/>
-      <c r="D244" s="141"/>
-      <c r="E244" s="141"/>
-      <c r="F244" s="141"/>
-      <c r="G244" s="141"/>
-      <c r="H244" s="142"/>
+      <c r="C244" s="140"/>
+      <c r="D244" s="140"/>
+      <c r="E244" s="140"/>
+      <c r="F244" s="140"/>
+      <c r="G244" s="140"/>
+      <c r="H244" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -35236,8 +35229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:AU283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="AL10" sqref="AL10"/>
+    <sheetView topLeftCell="AI37" workbookViewId="0">
+      <selection activeCell="AL45" sqref="AL45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35247,64 +35240,64 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="179" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="179"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="179"/>
+      <c r="B7" s="181" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
     </row>
     <row r="9" spans="2:47" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="183" t="s">
+      <c r="B9" s="185" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="185"/>
+      <c r="K9" s="185"/>
+      <c r="N9" s="186" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="183"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="183"/>
-      <c r="K9" s="183"/>
-      <c r="N9" s="184" t="s">
-        <v>91</v>
-      </c>
-      <c r="O9" s="184"/>
-      <c r="P9" s="184"/>
-      <c r="Q9" s="184"/>
-      <c r="R9" s="184"/>
-      <c r="S9" s="184"/>
-      <c r="T9" s="184"/>
-      <c r="U9" s="184"/>
-      <c r="V9" s="184"/>
-      <c r="W9" s="184"/>
-      <c r="Z9" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA9" s="184"/>
-      <c r="AB9" s="184"/>
-      <c r="AC9" s="184"/>
-      <c r="AD9" s="184"/>
-      <c r="AE9" s="184"/>
-      <c r="AF9" s="184"/>
-      <c r="AG9" s="184"/>
-      <c r="AH9" s="184"/>
-      <c r="AI9" s="184"/>
+      <c r="O9" s="186"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="186"/>
+      <c r="S9" s="186"/>
+      <c r="T9" s="186"/>
+      <c r="U9" s="186"/>
+      <c r="V9" s="186"/>
+      <c r="W9" s="186"/>
+      <c r="Z9" s="186" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA9" s="186"/>
+      <c r="AB9" s="186"/>
+      <c r="AC9" s="186"/>
+      <c r="AD9" s="186"/>
+      <c r="AE9" s="186"/>
+      <c r="AF9" s="186"/>
+      <c r="AG9" s="186"/>
+      <c r="AH9" s="186"/>
+      <c r="AI9" s="186"/>
       <c r="AK9" s="119"/>
-      <c r="AL9" s="184" t="s">
-        <v>95</v>
-      </c>
-      <c r="AM9" s="184"/>
-      <c r="AN9" s="184"/>
-      <c r="AO9" s="184"/>
-      <c r="AP9" s="184"/>
-      <c r="AQ9" s="136"/>
-      <c r="AR9" s="136"/>
+      <c r="AL9" s="186" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM9" s="186"/>
+      <c r="AN9" s="186"/>
+      <c r="AO9" s="186"/>
+      <c r="AP9" s="186"/>
+      <c r="AQ9" s="133"/>
+      <c r="AR9" s="133"/>
       <c r="AS9" s="123"/>
       <c r="AT9" s="123"/>
       <c r="AU9" s="123"/>
@@ -35344,7 +35337,7 @@
       <c r="AI10" s="119"/>
       <c r="AK10" s="119"/>
       <c r="AL10" s="120" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AM10" s="119"/>
       <c r="AN10" s="119"/>
@@ -36725,7 +36718,7 @@
     </row>
     <row r="45" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B45" s="121" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="119"/>
       <c r="D45" s="119"/>
@@ -36737,7 +36730,7 @@
       <c r="J45" s="119"/>
       <c r="K45" s="119"/>
       <c r="Z45" s="120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA45" s="119"/>
       <c r="AB45" s="119"/>
@@ -36749,14 +36742,14 @@
       <c r="AH45" s="119"/>
       <c r="AI45" s="119"/>
       <c r="AK45" s="119"/>
-      <c r="AL45" s="120" t="s">
+      <c r="AL45" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="AM45" s="119"/>
-      <c r="AN45" s="119"/>
-      <c r="AO45" s="119"/>
-      <c r="AP45" s="119"/>
-      <c r="AQ45" s="119"/>
+      <c r="AM45" s="135"/>
+      <c r="AN45" s="135"/>
+      <c r="AO45" s="135"/>
+      <c r="AP45" s="135"/>
+      <c r="AQ45" s="135"/>
       <c r="AR45" s="119"/>
     </row>
     <row r="46" spans="2:44" x14ac:dyDescent="0.25">
@@ -37263,20 +37256,20 @@
       <c r="AH62" s="119"/>
       <c r="AI62" s="119"/>
       <c r="AK62" s="119"/>
-      <c r="AL62" s="120" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM62" s="119"/>
-      <c r="AN62" s="119"/>
-      <c r="AO62" s="119"/>
-      <c r="AP62" s="119"/>
-      <c r="AQ62" s="119"/>
-      <c r="AR62" s="119"/>
+      <c r="AL62" s="134" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM62" s="135"/>
+      <c r="AN62" s="135"/>
+      <c r="AO62" s="135"/>
+      <c r="AP62" s="135"/>
+      <c r="AQ62" s="135"/>
+      <c r="AR62" s="135"/>
       <c r="AS62" s="119"/>
     </row>
     <row r="63" spans="2:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="120" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" s="119"/>
       <c r="D63" s="119"/>
@@ -37298,15 +37291,15 @@
       <c r="AH63" s="119"/>
       <c r="AI63" s="119"/>
       <c r="AK63" s="119"/>
-      <c r="AL63" s="120" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM63" s="119"/>
-      <c r="AN63" s="119"/>
-      <c r="AO63" s="119"/>
-      <c r="AP63" s="119"/>
-      <c r="AQ63" s="119"/>
-      <c r="AR63" s="119"/>
+      <c r="AL63" s="134" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM63" s="135"/>
+      <c r="AN63" s="135"/>
+      <c r="AO63" s="135"/>
+      <c r="AP63" s="135"/>
+      <c r="AQ63" s="135"/>
+      <c r="AR63" s="135"/>
       <c r="AS63" s="119"/>
     </row>
     <row r="64" spans="2:45" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -37332,7 +37325,7 @@
       <c r="AI64" s="119"/>
       <c r="AK64" s="119"/>
       <c r="AL64" s="124" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM64" s="125" t="s">
         <v>50</v>
@@ -37376,26 +37369,26 @@
       <c r="AH65" s="119"/>
       <c r="AI65" s="119"/>
       <c r="AK65" s="119"/>
-      <c r="AL65" s="127" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM65" s="128">
-        <v>0.11927621131150459</v>
-      </c>
-      <c r="AN65" s="128">
-        <v>0.26630732025540832</v>
-      </c>
-      <c r="AO65" s="128">
-        <v>0.63871430692334341</v>
-      </c>
-      <c r="AP65" s="128">
-        <v>-2.7117531181678589E-2</v>
-      </c>
-      <c r="AQ65" s="128">
-        <v>-6.1388151214869513E-3</v>
-      </c>
-      <c r="AR65" s="129">
-        <v>0.10106132893199571</v>
+      <c r="AL65" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM65" s="127">
+        <v>0.43934662082482173</v>
+      </c>
+      <c r="AN65" s="127">
+        <v>0.49494448788794143</v>
+      </c>
+      <c r="AO65" s="127">
+        <v>0.35082602250205558</v>
+      </c>
+      <c r="AP65" s="127">
+        <v>-8.4247829452864742E-2</v>
+      </c>
+      <c r="AQ65" s="127">
+        <v>-5.888109222080784E-2</v>
+      </c>
+      <c r="AR65" s="128">
+        <v>6.393746503162373E-2</v>
       </c>
       <c r="AS65" s="119"/>
     </row>
@@ -37421,26 +37414,26 @@
       <c r="AH66" s="119"/>
       <c r="AI66" s="119"/>
       <c r="AK66" s="119"/>
-      <c r="AL66" s="130" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM66" s="131">
-        <v>0.15669458665084382</v>
-      </c>
-      <c r="AN66" s="131">
-        <v>0.24495301439236089</v>
-      </c>
-      <c r="AO66" s="131">
-        <v>0.57214883249302873</v>
-      </c>
-      <c r="AP66" s="131">
-        <v>-5.2370043829674556E-2</v>
-      </c>
-      <c r="AQ66" s="131">
-        <v>-4.3004952463117418E-2</v>
-      </c>
-      <c r="AR66" s="132">
-        <v>2.693755926053043E-2</v>
+      <c r="AL66" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM66" s="129">
+        <v>0.15667287926878679</v>
+      </c>
+      <c r="AN66" s="129">
+        <v>0.24491072588551474</v>
+      </c>
+      <c r="AO66" s="129">
+        <v>0.57207303211023308</v>
+      </c>
+      <c r="AP66" s="129">
+        <v>-5.2391751211731591E-2</v>
+      </c>
+      <c r="AQ66" s="129">
+        <v>-4.3047240969963568E-2</v>
+      </c>
+      <c r="AR66" s="130">
+        <v>2.6861758877734787E-2</v>
       </c>
       <c r="AS66" s="119"/>
     </row>
@@ -37466,26 +37459,26 @@
       <c r="AH67" s="119"/>
       <c r="AI67" s="119"/>
       <c r="AK67" s="119"/>
-      <c r="AL67" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM67" s="131">
-        <v>0.21328647622491412</v>
-      </c>
-      <c r="AN67" s="131">
-        <v>0.38141836919182787</v>
-      </c>
-      <c r="AO67" s="131">
-        <v>0.60493571132310242</v>
-      </c>
-      <c r="AP67" s="131">
-        <v>-0.11227456811369049</v>
-      </c>
-      <c r="AQ67" s="131">
-        <v>-1.3011664649280608E-3</v>
-      </c>
-      <c r="AR67" s="132">
-        <v>0.11436521964027901</v>
+      <c r="AL67" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM67" s="129">
+        <v>0.21289757957831135</v>
+      </c>
+      <c r="AN67" s="129">
+        <v>0.38034056017872597</v>
+      </c>
+      <c r="AO67" s="129">
+        <v>0.60510690300621539</v>
+      </c>
+      <c r="AP67" s="129">
+        <v>-0.11266346476029326</v>
+      </c>
+      <c r="AQ67" s="129">
+        <v>-2.3789754780299543E-3</v>
+      </c>
+      <c r="AR67" s="130">
+        <v>0.11453641132339198</v>
       </c>
       <c r="AS67" s="119"/>
     </row>
@@ -37511,26 +37504,26 @@
       <c r="AH68" s="119"/>
       <c r="AI68" s="119"/>
       <c r="AK68" s="119"/>
-      <c r="AL68" s="130" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM68" s="131">
-        <v>0.23762620565175702</v>
-      </c>
-      <c r="AN68" s="131">
-        <v>0.3157467990298381</v>
-      </c>
-      <c r="AO68" s="131">
-        <v>0.43326708795748392</v>
-      </c>
-      <c r="AP68" s="131">
-        <v>-0.11609909885969666</v>
-      </c>
-      <c r="AQ68" s="131">
-        <v>-0.11188980837112461</v>
-      </c>
-      <c r="AR68" s="132">
-        <v>5.5328737558571928E-2</v>
+      <c r="AL68" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM68" s="129">
+        <v>0.34382808409987781</v>
+      </c>
+      <c r="AN68" s="129">
+        <v>0.38272408309302453</v>
+      </c>
+      <c r="AO68" s="129">
+        <v>0.48497800477293235</v>
+      </c>
+      <c r="AP68" s="129">
+        <v>-0.10853418526846886</v>
+      </c>
+      <c r="AQ68" s="129">
+        <v>-7.5042097533566221E-2</v>
+      </c>
+      <c r="AR68" s="130">
+        <v>0.11835551698521735</v>
       </c>
       <c r="AS68" s="119"/>
     </row>
@@ -37556,26 +37549,26 @@
       <c r="AH69" s="119"/>
       <c r="AI69" s="119"/>
       <c r="AK69" s="119"/>
-      <c r="AL69" s="130" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM69" s="131">
-        <v>0.25931270257070549</v>
-      </c>
-      <c r="AN69" s="131">
-        <v>0.31260267282333609</v>
-      </c>
-      <c r="AO69" s="131">
-        <v>0.512054823704861</v>
-      </c>
-      <c r="AP69" s="131">
-        <v>-0.1442285036036936</v>
-      </c>
-      <c r="AQ69" s="131">
-        <v>-0.16618857637843659</v>
-      </c>
-      <c r="AR69" s="132">
-        <v>8.9991266636181511E-2</v>
+      <c r="AL69" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM69" s="129">
+        <v>0.36539254320689779</v>
+      </c>
+      <c r="AN69" s="129">
+        <v>0.36954869025422926</v>
+      </c>
+      <c r="AO69" s="129">
+        <v>0.49344163778149719</v>
+      </c>
+      <c r="AP69" s="129">
+        <v>-0.12293248500753334</v>
+      </c>
+      <c r="AQ69" s="129">
+        <v>-7.0866833831871867E-2</v>
+      </c>
+      <c r="AR69" s="130">
+        <v>9.0987144147674837E-2</v>
       </c>
       <c r="AS69" s="119"/>
     </row>
@@ -37601,26 +37594,26 @@
       <c r="AH70" s="119"/>
       <c r="AI70" s="119"/>
       <c r="AK70" s="119"/>
-      <c r="AL70" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM70" s="131">
-        <v>0.34367551745766256</v>
-      </c>
-      <c r="AN70" s="131">
-        <v>0.38273050386786533</v>
-      </c>
-      <c r="AO70" s="131">
-        <v>0.4853782002257912</v>
-      </c>
-      <c r="AP70" s="131">
-        <v>-0.10868675191068411</v>
-      </c>
-      <c r="AQ70" s="131">
-        <v>-7.5035676758725411E-2</v>
-      </c>
-      <c r="AR70" s="132">
-        <v>0.1187557124380762</v>
+      <c r="AL70" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM70" s="129">
+        <v>0.47575263216917624</v>
+      </c>
+      <c r="AN70" s="129">
+        <v>0.63581394034149319</v>
+      </c>
+      <c r="AO70" s="129">
+        <v>0.42873833472236006</v>
+      </c>
+      <c r="AP70" s="129">
+        <v>-7.2642006325497277E-2</v>
+      </c>
+      <c r="AQ70" s="129">
+        <v>-4.3626820408998346E-2</v>
+      </c>
+      <c r="AR70" s="130">
+        <v>5.2363845163387934E-2</v>
       </c>
       <c r="AS70" s="119"/>
     </row>
@@ -37646,26 +37639,26 @@
       <c r="AH71" s="119"/>
       <c r="AI71" s="119"/>
       <c r="AK71" s="119"/>
-      <c r="AL71" s="130" t="s">
+      <c r="AL71" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="AM71" s="131">
-        <v>0.36098022912047306</v>
-      </c>
-      <c r="AN71" s="131">
-        <v>0.37382206208425722</v>
-      </c>
-      <c r="AO71" s="131">
-        <v>0.50552981155390797</v>
-      </c>
-      <c r="AP71" s="131">
-        <v>-0.12734479909395807</v>
-      </c>
-      <c r="AQ71" s="131">
-        <v>-6.6593462001843906E-2</v>
-      </c>
-      <c r="AR71" s="132">
-        <v>0.10307531792008562</v>
+      <c r="AM71" s="129">
+        <v>0.25935262807570569</v>
+      </c>
+      <c r="AN71" s="129">
+        <v>0.31379068206282912</v>
+      </c>
+      <c r="AO71" s="129">
+        <v>0.51241910836845539</v>
+      </c>
+      <c r="AP71" s="129">
+        <v>-0.1441885780986934</v>
+      </c>
+      <c r="AQ71" s="129">
+        <v>-0.16500056713894357</v>
+      </c>
+      <c r="AR71" s="130">
+        <v>9.0355551299775905E-2</v>
       </c>
       <c r="AS71" s="119"/>
     </row>
@@ -37691,26 +37684,26 @@
       <c r="AH72" s="119"/>
       <c r="AI72" s="119"/>
       <c r="AK72" s="119"/>
-      <c r="AL72" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM72" s="131">
-        <v>0.43824824328658485</v>
-      </c>
-      <c r="AN72" s="131">
-        <v>0.49394990815523226</v>
-      </c>
-      <c r="AO72" s="131">
-        <v>0.35043976152529366</v>
-      </c>
-      <c r="AP72" s="131">
-        <v>-8.5346206991101625E-2</v>
-      </c>
-      <c r="AQ72" s="131">
-        <v>-5.9875671953517007E-2</v>
-      </c>
-      <c r="AR72" s="132">
-        <v>6.355120405486181E-2</v>
+      <c r="AL72" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM72" s="129">
+        <v>0.56136479697080321</v>
+      </c>
+      <c r="AN72" s="129">
+        <v>0.66187902383413022</v>
+      </c>
+      <c r="AO72" s="129">
+        <v>0.35626433179528005</v>
+      </c>
+      <c r="AP72" s="129">
+        <v>-4.7731401992734845E-2</v>
+      </c>
+      <c r="AQ72" s="129">
+        <v>-4.5810116446944438E-2</v>
+      </c>
+      <c r="AR72" s="130">
+        <v>2.2440218788844946E-2</v>
       </c>
       <c r="AS72" s="119"/>
     </row>
@@ -37736,26 +37729,26 @@
       <c r="AH73" s="119"/>
       <c r="AI73" s="119"/>
       <c r="AK73" s="119"/>
-      <c r="AL73" s="130" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM73" s="131">
-        <v>0.47601420585616039</v>
-      </c>
-      <c r="AN73" s="131">
-        <v>0.6358837351530563</v>
-      </c>
-      <c r="AO73" s="131">
-        <v>0.4287859613599932</v>
-      </c>
-      <c r="AP73" s="131">
-        <v>-7.2380432638513126E-2</v>
-      </c>
-      <c r="AQ73" s="131">
-        <v>-4.3557025597435239E-2</v>
-      </c>
-      <c r="AR73" s="132">
-        <v>5.241147180102107E-2</v>
+      <c r="AL73" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM73" s="129">
+        <v>0.24062973948673805</v>
+      </c>
+      <c r="AN73" s="129">
+        <v>0.3173175617040831</v>
+      </c>
+      <c r="AO73" s="129">
+        <v>0.43499554137639085</v>
+      </c>
+      <c r="AP73" s="129">
+        <v>-0.11309556502471563</v>
+      </c>
+      <c r="AQ73" s="129">
+        <v>-0.11031904569687961</v>
+      </c>
+      <c r="AR73" s="130">
+        <v>5.7057190977478855E-2</v>
       </c>
       <c r="AS73" s="119"/>
     </row>
@@ -37781,26 +37774,26 @@
       <c r="AH74" s="119"/>
       <c r="AI74" s="119"/>
       <c r="AK74" s="119"/>
-      <c r="AL74" s="130" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM74" s="131">
-        <v>0.50569955983597303</v>
-      </c>
-      <c r="AN74" s="131">
-        <v>0.56299612505172858</v>
-      </c>
-      <c r="AO74" s="131">
-        <v>0.39398596725693286</v>
-      </c>
-      <c r="AP74" s="131">
-        <v>1.3269213701481375E-2</v>
-      </c>
-      <c r="AQ74" s="131">
-        <v>-1.6693898476131008E-2</v>
-      </c>
-      <c r="AR74" s="132">
-        <v>-2.9592286914081056E-2</v>
+      <c r="AL74" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM74" s="129">
+        <v>0.12055327817284682</v>
+      </c>
+      <c r="AN74" s="129">
+        <v>0.26652589166429769</v>
+      </c>
+      <c r="AO74" s="129">
+        <v>0.64480707662969428</v>
+      </c>
+      <c r="AP74" s="129">
+        <v>-2.5840464320336362E-2</v>
+      </c>
+      <c r="AQ74" s="129">
+        <v>-5.9202437125975838E-3</v>
+      </c>
+      <c r="AR74" s="130">
+        <v>0.10715409863834657</v>
       </c>
       <c r="AS74" s="119"/>
     </row>
@@ -37826,26 +37819,26 @@
       <c r="AH75" s="119"/>
       <c r="AI75" s="119"/>
       <c r="AK75" s="119"/>
-      <c r="AL75" s="130" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM75" s="131">
-        <v>0.52385525905928765</v>
-      </c>
-      <c r="AN75" s="131">
-        <v>0.60245561208597231</v>
-      </c>
-      <c r="AO75" s="131">
-        <v>0.34607264423284073</v>
-      </c>
-      <c r="AP75" s="131">
-        <v>2.0386254759267031E-3</v>
-      </c>
-      <c r="AQ75" s="131">
-        <v>3.8808860434239589E-3</v>
-      </c>
-      <c r="AR75" s="132">
-        <v>-0.11096009708467064</v>
+      <c r="AL75" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM75" s="129">
+        <v>0.62748431599146692</v>
+      </c>
+      <c r="AN75" s="129">
+        <v>0.60809506154310122</v>
+      </c>
+      <c r="AO75" s="129">
+        <v>0.29913233029030201</v>
+      </c>
+      <c r="AP75" s="129">
+        <v>-4.0127449627844647E-2</v>
+      </c>
+      <c r="AQ75" s="129">
+        <v>-2.498968779507893E-2</v>
+      </c>
+      <c r="AR75" s="130">
+        <v>5.0358491979161923E-2</v>
       </c>
       <c r="AS75" s="119"/>
     </row>
@@ -37871,26 +37864,26 @@
       <c r="AH76" s="119"/>
       <c r="AI76" s="119"/>
       <c r="AK76" s="119"/>
-      <c r="AL76" s="130" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM76" s="131">
-        <v>0.52414302267157498</v>
-      </c>
-      <c r="AN76" s="131">
-        <v>0.64378659393168791</v>
-      </c>
-      <c r="AO76" s="131">
-        <v>0.35114041794087669</v>
-      </c>
-      <c r="AP76" s="131">
-        <v>-4.6672721748559853E-2</v>
-      </c>
-      <c r="AQ76" s="131">
-        <v>-4.1059158354334935E-2</v>
-      </c>
-      <c r="AR76" s="132">
-        <v>2.071240928530893E-2</v>
+      <c r="AL76" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM76" s="129">
+        <v>0.52222049520915736</v>
+      </c>
+      <c r="AN76" s="129">
+        <v>0.60327374983906756</v>
+      </c>
+      <c r="AO76" s="129">
+        <v>0.34539660421585255</v>
+      </c>
+      <c r="AP76" s="129">
+        <v>4.0386162579642004E-4</v>
+      </c>
+      <c r="AQ76" s="129">
+        <v>4.6990237965192083E-3</v>
+      </c>
+      <c r="AR76" s="130">
+        <v>-0.11163613710165882</v>
       </c>
       <c r="AS76" s="119"/>
     </row>
@@ -37916,26 +37909,26 @@
       <c r="AH77" s="119"/>
       <c r="AI77" s="119"/>
       <c r="AK77" s="119"/>
-      <c r="AL77" s="130" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM77" s="131">
-        <v>0.56272971685270901</v>
-      </c>
-      <c r="AN77" s="131">
-        <v>0.66236727470732382</v>
-      </c>
-      <c r="AO77" s="131">
-        <v>0.35196269845347578</v>
-      </c>
-      <c r="AP77" s="131">
-        <v>-4.6366482110829055E-2</v>
-      </c>
-      <c r="AQ77" s="131">
-        <v>-4.5321865573750841E-2</v>
-      </c>
-      <c r="AR77" s="132">
-        <v>1.8138585447040667E-2</v>
+      <c r="AL77" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM77" s="129">
+        <v>0.66790512857918538</v>
+      </c>
+      <c r="AN77" s="129">
+        <v>0.7486423380871684</v>
+      </c>
+      <c r="AO77" s="129">
+        <v>0.2707540653949434</v>
+      </c>
+      <c r="AP77" s="129">
+        <v>6.4938331681820394E-2</v>
+      </c>
+      <c r="AQ77" s="129">
+        <v>-1.0728812413038691E-2</v>
+      </c>
+      <c r="AR77" s="130">
+        <v>-8.8755061130860291E-2</v>
       </c>
       <c r="AS77" s="119"/>
     </row>
@@ -37961,26 +37954,26 @@
       <c r="AH78" s="119"/>
       <c r="AI78" s="119"/>
       <c r="AK78" s="119"/>
-      <c r="AL78" s="130" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM78" s="131">
-        <v>0.57040866568193016</v>
-      </c>
-      <c r="AN78" s="131">
-        <v>0.70958045038741613</v>
-      </c>
-      <c r="AO78" s="131">
-        <v>0.36381564531444011</v>
-      </c>
-      <c r="AP78" s="131">
-        <v>-1.0896501582881135E-2</v>
-      </c>
-      <c r="AQ78" s="131">
-        <v>2.7174092788149196E-3</v>
-      </c>
-      <c r="AR78" s="132">
-        <v>-4.7541394166589201E-3</v>
+      <c r="AL78" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM78" s="129">
+        <v>0.52401320421430464</v>
+      </c>
+      <c r="AN78" s="129">
+        <v>0.64381494530801009</v>
+      </c>
+      <c r="AO78" s="129">
+        <v>0.35177640522338888</v>
+      </c>
+      <c r="AP78" s="129">
+        <v>-4.680254020583019E-2</v>
+      </c>
+      <c r="AQ78" s="129">
+        <v>-4.1030806978012757E-2</v>
+      </c>
+      <c r="AR78" s="130">
+        <v>2.1348396567821115E-2</v>
       </c>
       <c r="AS78" s="119"/>
     </row>
@@ -38008,32 +38001,32 @@
       <c r="AH79" s="119"/>
       <c r="AI79" s="119"/>
       <c r="AK79" s="119"/>
-      <c r="AL79" s="130" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM79" s="131">
-        <v>0.62774472304859041</v>
-      </c>
-      <c r="AN79" s="131">
-        <v>0.60828965386976441</v>
-      </c>
-      <c r="AO79" s="131">
-        <v>0.29763036854464647</v>
-      </c>
-      <c r="AP79" s="131">
-        <v>-3.9867042570721156E-2</v>
-      </c>
-      <c r="AQ79" s="131">
-        <v>-2.479509546841574E-2</v>
-      </c>
-      <c r="AR79" s="132">
-        <v>4.885653023350639E-2</v>
+      <c r="AL79" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM79" s="129">
+        <v>0.50567374219516537</v>
+      </c>
+      <c r="AN79" s="129">
+        <v>0.55508422776669164</v>
+      </c>
+      <c r="AO79" s="129">
+        <v>0.38439625672154398</v>
+      </c>
+      <c r="AP79" s="129">
+        <v>1.3243396060673707E-2</v>
+      </c>
+      <c r="AQ79" s="129">
+        <v>-2.4605795761167948E-2</v>
+      </c>
+      <c r="AR79" s="130">
+        <v>-3.918199744946993E-2</v>
       </c>
       <c r="AS79" s="119"/>
     </row>
     <row r="80" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B80" s="120" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80" s="119"/>
       <c r="D80" s="119"/>
@@ -38055,26 +38048,26 @@
       <c r="AH80" s="119"/>
       <c r="AI80" s="119"/>
       <c r="AK80" s="119"/>
-      <c r="AL80" s="130" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM80" s="131">
-        <v>0.65202289141877823</v>
-      </c>
-      <c r="AN80" s="131">
-        <v>0.64838107479495655</v>
-      </c>
-      <c r="AO80" s="131">
-        <v>0.31550751657895354</v>
-      </c>
-      <c r="AP80" s="131">
-        <v>6.4609267083400979E-2</v>
-      </c>
-      <c r="AQ80" s="131">
-        <v>-5.0665650915712845E-2</v>
-      </c>
-      <c r="AR80" s="132">
-        <v>-6.1435143925705538E-2</v>
+      <c r="AL80" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM80" s="129">
+        <v>0.56869033755174414</v>
+      </c>
+      <c r="AN80" s="129">
+        <v>0.71040641249722558</v>
+      </c>
+      <c r="AO80" s="129">
+        <v>0.36292856076507141</v>
+      </c>
+      <c r="AP80" s="129">
+        <v>-1.2614829713067155E-2</v>
+      </c>
+      <c r="AQ80" s="129">
+        <v>3.5433713886243723E-3</v>
+      </c>
+      <c r="AR80" s="130">
+        <v>-5.6412239660276198E-3</v>
       </c>
       <c r="AS80" s="119"/>
     </row>
@@ -38100,26 +38093,26 @@
       <c r="AH81" s="119"/>
       <c r="AI81" s="119"/>
       <c r="AK81" s="119"/>
-      <c r="AL81" s="133" t="s">
+      <c r="AL81" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="AM81" s="134">
-        <v>0.66819499696581486</v>
-      </c>
-      <c r="AN81" s="134">
-        <v>0.7494774458903648</v>
-      </c>
-      <c r="AO81" s="134">
-        <v>0.27010330919286885</v>
-      </c>
-      <c r="AP81" s="134">
-        <v>6.5228200068449871E-2</v>
-      </c>
-      <c r="AQ81" s="134">
-        <v>-9.8937046098422909E-3</v>
-      </c>
-      <c r="AR81" s="135">
-        <v>-8.9405817332934845E-2</v>
+      <c r="AM81" s="131">
+        <v>0.65007519432375294</v>
+      </c>
+      <c r="AN81" s="131">
+        <v>0.64797961718012065</v>
+      </c>
+      <c r="AO81" s="131">
+        <v>0.31608860793131316</v>
+      </c>
+      <c r="AP81" s="131">
+        <v>6.2661569988375687E-2</v>
+      </c>
+      <c r="AQ81" s="131">
+        <v>-5.1067108530548744E-2</v>
+      </c>
+      <c r="AR81" s="132">
+        <v>-6.0854052573345918E-2</v>
       </c>
       <c r="AS81" s="119"/>
     </row>
@@ -38466,7 +38459,7 @@
     </row>
     <row r="97" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B97" s="120" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C97" s="119"/>
       <c r="D97" s="119"/>
@@ -38844,7 +38837,7 @@
     </row>
     <row r="114" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B114" s="120" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C114" s="119"/>
       <c r="D114" s="119"/>
@@ -39210,7 +39203,7 @@
     </row>
     <row r="131" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B131" s="120" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C131" s="119"/>
       <c r="D131" s="119"/>
@@ -39622,7 +39615,7 @@
     </row>
     <row r="165" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B165" s="121" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C165" s="119"/>
       <c r="D165" s="119"/>
@@ -39828,7 +39821,7 @@
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B182" s="121" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C182" s="119"/>
       <c r="D182" s="119"/>
@@ -40034,7 +40027,7 @@
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B199" s="121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C199" s="119"/>
       <c r="D199" s="119"/>
@@ -40240,7 +40233,7 @@
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B216" s="121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C216" s="119"/>
       <c r="D216" s="119"/>
@@ -40446,7 +40439,7 @@
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B233" s="122" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C233" s="119"/>
       <c r="D233" s="119"/>
@@ -40652,7 +40645,7 @@
     </row>
     <row r="250" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B250" s="122" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C250" s="119"/>
       <c r="D250" s="119"/>
@@ -40858,7 +40851,7 @@
     </row>
     <row r="267" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B267" s="122" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C267" s="119"/>
       <c r="D267" s="119"/>
@@ -41088,6 +41081,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E32F44A9808C1C449C64C086D39CC55B" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e1312571793aa7146402c35018a1ef37">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="169c4928-515c-4b61-8649-63dac4b6363a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1fe585e540f4b6b4e044a17177cff659" ns3:_="">
     <xsd:import namespace="169c4928-515c-4b61-8649-63dac4b6363a"/>
@@ -41277,7 +41276,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -41286,13 +41285,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584119C7-67C1-4DB6-97DA-46F9C9B6823C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="169c4928-515c-4b61-8649-63dac4b6363a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{401B0844-59DB-4BC8-B746-0D6C610E51A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41310,26 +41319,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05521DA2-2ED3-4C0C-A716-AF12421F174D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{584119C7-67C1-4DB6-97DA-46F9C9B6823C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="169c4928-515c-4b61-8649-63dac4b6363a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>